--- a/jn_test/data.xlsx
+++ b/jn_test/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_nurfajrina\jn_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1DBBF7-F8FD-4607-9122-D7DE23A76928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A525E2D-A693-4867-9A6D-7C216937891C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{D956186F-AD55-45B9-B222-A2A2D16F3C8E}"/>
   </bookViews>
@@ -37,33 +37,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="38">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Jenis Ikan</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>Berat (Ton)</t>
-  </si>
-  <si>
-    <t>Lokasi Penjualan</t>
-  </si>
-  <si>
-    <t>Stok Harian (Kg)</t>
-  </si>
-  <si>
-    <t>Terjual Harian (Kg)</t>
-  </si>
-  <si>
-    <t>Kategori Pemasaran</t>
-  </si>
-  <si>
-    <t>Status Penjualan</t>
   </si>
   <si>
     <t>Udang</t>
@@ -148,6 +121,33 @@
   </si>
   <si>
     <t>September</t>
+  </si>
+  <si>
+    <t>jenis_ikan</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>berat</t>
+  </si>
+  <si>
+    <t>lokasi</t>
+  </si>
+  <si>
+    <t>stok</t>
+  </si>
+  <si>
+    <t>terjual_harian</t>
+  </si>
+  <si>
+    <t>kategori_pemasaran</t>
+  </si>
+  <si>
+    <t>status_penjualan</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C6F591-9C3C-4FC2-8873-AC86FB634122}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,31 +613,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -645,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>2022</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>0.7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5">
         <v>50</v>
@@ -666,10 +666,10 @@
         <v>128</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -677,19 +677,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <v>2020</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>0.9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
         <v>118</v>
@@ -698,10 +698,10 @@
         <v>84</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -709,19 +709,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>2022</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5">
         <v>2.7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5">
         <v>53</v>
@@ -730,10 +730,10 @@
         <v>105</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -741,19 +741,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>2021</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <v>65</v>
@@ -762,10 +762,10 @@
         <v>90</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -773,19 +773,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>2022</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5">
         <v>0.5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5">
         <v>73</v>
@@ -794,10 +794,10 @@
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -805,19 +805,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <v>2020</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
         <v>0.8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <v>129</v>
@@ -826,10 +826,10 @@
         <v>55</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -837,19 +837,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>2020</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
         <v>51</v>
@@ -858,10 +858,10 @@
         <v>89</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -869,19 +869,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5">
         <v>2021</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
         <v>0.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
         <v>177</v>
@@ -890,10 +890,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -901,19 +901,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>2022</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5">
         <v>0.9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5">
         <v>133</v>
@@ -922,10 +922,10 @@
         <v>127</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,19 +933,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5">
         <v>2022</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" s="5">
         <v>1.9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5">
         <v>189</v>
@@ -954,10 +954,10 @@
         <v>110</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -965,19 +965,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <v>2021</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5">
         <v>173</v>
@@ -986,10 +986,10 @@
         <v>109</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -997,19 +997,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5">
         <v>2022</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5">
         <v>2.1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5">
         <v>82</v>
@@ -1018,10 +1018,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,19 +1029,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>2022</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5">
         <v>150</v>
@@ -1050,10 +1050,10 @@
         <v>58</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1061,19 +1061,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5">
         <v>2020</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5">
         <v>61</v>
@@ -1082,10 +1082,10 @@
         <v>145</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,19 +1093,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>2022</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5">
         <v>116</v>
@@ -1114,10 +1114,10 @@
         <v>145</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1125,19 +1125,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>2022</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5">
         <v>1.3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5">
         <v>114</v>
@@ -1146,10 +1146,10 @@
         <v>77</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1157,19 +1157,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5">
         <v>2021</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5">
         <v>2.4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5">
         <v>123</v>
@@ -1178,10 +1178,10 @@
         <v>80</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1189,19 +1189,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5">
         <v>2021</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5">
         <v>2.1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5">
         <v>92</v>
@@ -1210,10 +1210,10 @@
         <v>146</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,19 +1221,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5">
         <v>2023</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5">
         <v>2.6</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5">
         <v>93</v>
@@ -1242,10 +1242,10 @@
         <v>124</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1253,19 +1253,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5">
         <v>2020</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5">
         <v>2.1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5">
         <v>78</v>
@@ -1274,10 +1274,10 @@
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1285,19 +1285,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
         <v>2022</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5">
         <v>1.9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G22" s="5">
         <v>190</v>
@@ -1306,10 +1306,10 @@
         <v>111</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,19 +1317,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5">
         <v>2022</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5">
         <v>0.7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5">
         <v>61</v>
@@ -1338,10 +1338,10 @@
         <v>132</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1349,19 +1349,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5">
         <v>2023</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E24" s="5">
         <v>1.4</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G24" s="5">
         <v>144</v>
@@ -1370,10 +1370,10 @@
         <v>75</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,19 +1381,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5">
         <v>2022</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E25" s="5">
         <v>1.2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5">
         <v>95</v>
@@ -1402,10 +1402,10 @@
         <v>136</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1413,19 +1413,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5">
         <v>2020</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E26" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G26" s="5">
         <v>179</v>
@@ -1434,10 +1434,10 @@
         <v>77</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1445,19 +1445,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
         <v>2023</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5">
         <v>2.9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5">
         <v>84</v>
@@ -1466,10 +1466,10 @@
         <v>63</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,19 +1477,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28" s="5">
         <v>2020</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
         <v>1.5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G28" s="5">
         <v>130</v>
@@ -1498,10 +1498,10 @@
         <v>80</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1509,19 +1509,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5">
         <v>2023</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E29" s="5">
         <v>2.7</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G29" s="5">
         <v>139</v>
@@ -1530,10 +1530,10 @@
         <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1541,19 +1541,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="5">
         <v>2023</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E30" s="5">
         <v>2.1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G30" s="5">
         <v>57</v>
@@ -1562,10 +1562,10 @@
         <v>99</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1573,19 +1573,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5">
         <v>2021</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E31" s="5">
         <v>2.5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5">
         <v>142</v>
@@ -1594,10 +1594,10 @@
         <v>137</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,19 +1605,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C32" s="5">
         <v>2020</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5">
         <v>1.8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G32" s="5">
         <v>139</v>
@@ -1626,10 +1626,10 @@
         <v>39</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1637,19 +1637,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5">
         <v>2022</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E33" s="5">
         <v>1.9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G33" s="5">
         <v>164</v>
@@ -1658,10 +1658,10 @@
         <v>66</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1669,19 +1669,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5">
         <v>2022</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E34" s="5">
         <v>1.7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G34" s="5">
         <v>154</v>
@@ -1690,10 +1690,10 @@
         <v>68</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1701,19 +1701,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C35" s="5">
         <v>2020</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G35" s="5">
         <v>184</v>
@@ -1722,10 +1722,10 @@
         <v>33</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1733,19 +1733,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C36" s="5">
         <v>2022</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G36" s="5">
         <v>107</v>
@@ -1754,10 +1754,10 @@
         <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1765,19 +1765,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C37" s="5">
         <v>2022</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E37" s="5">
         <v>1.2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G37" s="5">
         <v>163</v>
@@ -1786,10 +1786,10 @@
         <v>136</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1797,19 +1797,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C38" s="5">
         <v>2020</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5">
         <v>0.6</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G38" s="5">
         <v>124</v>
@@ -1818,10 +1818,10 @@
         <v>73</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1829,19 +1829,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C39" s="5">
         <v>2023</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E39" s="5">
         <v>2.1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G39" s="5">
         <v>169</v>
@@ -1850,10 +1850,10 @@
         <v>137</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1861,19 +1861,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C40" s="5">
         <v>2020</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E40" s="5">
         <v>0.9</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G40" s="5">
         <v>70</v>
@@ -1882,10 +1882,10 @@
         <v>22</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1893,19 +1893,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C41" s="5">
         <v>2023</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
         <v>2.9</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G41" s="5">
         <v>187</v>
@@ -1914,10 +1914,10 @@
         <v>31</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1925,19 +1925,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C42" s="5">
         <v>2022</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5">
         <v>2.9</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G42" s="5">
         <v>150</v>
@@ -1946,10 +1946,10 @@
         <v>93</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1957,19 +1957,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5">
         <v>2022</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5">
         <v>2.8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G43" s="5">
         <v>148</v>
@@ -1978,10 +1978,10 @@
         <v>35</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1989,19 +1989,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C44" s="5">
         <v>2022</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E44" s="5">
         <v>1.4</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G44" s="5">
         <v>85</v>
@@ -2010,10 +2010,10 @@
         <v>121</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2021,19 +2021,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5">
         <v>2021</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E45" s="5">
         <v>0.5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G45" s="5">
         <v>145</v>
@@ -2042,10 +2042,10 @@
         <v>136</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2053,19 +2053,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C46" s="5">
         <v>2023</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E46" s="5">
         <v>2.8</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G46" s="5">
         <v>86</v>
@@ -2074,10 +2074,10 @@
         <v>27</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2085,19 +2085,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C47" s="5">
         <v>2021</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E47" s="5">
         <v>1.6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G47" s="5">
         <v>61</v>
@@ -2106,10 +2106,10 @@
         <v>141</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2117,19 +2117,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C48" s="5">
         <v>2021</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E48" s="5">
         <v>2.9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G48" s="5">
         <v>162</v>
@@ -2138,10 +2138,10 @@
         <v>111</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2149,19 +2149,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5">
         <v>2020</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E49" s="5">
         <v>2.9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G49" s="5">
         <v>62</v>
@@ -2170,10 +2170,10 @@
         <v>109</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2181,19 +2181,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C50" s="5">
         <v>2021</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E50" s="5">
         <v>2.6</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G50" s="5">
         <v>72</v>
@@ -2202,10 +2202,10 @@
         <v>79</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2213,19 +2213,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C51" s="5">
         <v>2020</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E51" s="5">
         <v>1.2</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G51" s="5">
         <v>148</v>
@@ -2234,10 +2234,10 @@
         <v>47</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,19 +2245,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C52" s="5">
         <v>2020</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E52" s="5">
         <v>1.5</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G52" s="5">
         <v>154</v>
@@ -2266,10 +2266,10 @@
         <v>120</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2277,19 +2277,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C53" s="5">
         <v>2021</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E53" s="5">
         <v>2.6</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G53" s="5">
         <v>79</v>
@@ -2298,10 +2298,10 @@
         <v>60</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2309,19 +2309,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C54" s="5">
         <v>2023</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E54" s="5">
         <v>1.3</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G54" s="5">
         <v>66</v>
@@ -2330,10 +2330,10 @@
         <v>65</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2341,19 +2341,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C55" s="5">
         <v>2023</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5">
         <v>0.9</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G55" s="5">
         <v>162</v>
@@ -2362,10 +2362,10 @@
         <v>54</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2373,19 +2373,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C56" s="5">
         <v>2023</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E56" s="5">
         <v>1.9</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G56" s="5">
         <v>111</v>
@@ -2394,10 +2394,10 @@
         <v>101</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2405,19 +2405,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C57" s="5">
         <v>2023</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E57" s="5">
         <v>2.8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G57" s="5">
         <v>133</v>
@@ -2426,10 +2426,10 @@
         <v>134</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2437,19 +2437,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C58" s="5">
         <v>2023</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E58" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G58" s="5">
         <v>161</v>
@@ -2458,10 +2458,10 @@
         <v>66</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2469,19 +2469,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C59" s="5">
         <v>2021</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E59" s="5">
         <v>1.9</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G59" s="5">
         <v>135</v>
@@ -2490,10 +2490,10 @@
         <v>29</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2501,19 +2501,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C60" s="5">
         <v>2021</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E60" s="5">
         <v>0.7</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G60" s="5">
         <v>190</v>
@@ -2522,10 +2522,10 @@
         <v>75</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2533,19 +2533,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C61" s="5">
         <v>2022</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E61" s="5">
         <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G61" s="5">
         <v>68</v>
@@ -2554,10 +2554,10 @@
         <v>49</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2565,19 +2565,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C62" s="5">
         <v>2023</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G62" s="5">
         <v>149</v>
@@ -2586,10 +2586,10 @@
         <v>128</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2597,19 +2597,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C63" s="5">
         <v>2021</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E63" s="5">
         <v>0.9</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G63" s="5">
         <v>189</v>
@@ -2618,10 +2618,10 @@
         <v>24</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2629,19 +2629,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C64" s="5">
         <v>2022</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E64" s="5">
         <v>1.8</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G64" s="5">
         <v>196</v>
@@ -2650,10 +2650,10 @@
         <v>138</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2661,19 +2661,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C65" s="5">
         <v>2023</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E65" s="5">
         <v>2.7</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G65" s="5">
         <v>125</v>
@@ -2682,10 +2682,10 @@
         <v>52</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,19 +2693,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C66" s="5">
         <v>2020</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E66" s="5">
         <v>2.4</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G66" s="5">
         <v>58</v>
@@ -2714,10 +2714,10 @@
         <v>137</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2725,19 +2725,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C67" s="5">
         <v>2022</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E67" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G67" s="5">
         <v>77</v>
@@ -2746,10 +2746,10 @@
         <v>84</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2757,19 +2757,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C68" s="5">
         <v>2021</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E68" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G68" s="5">
         <v>177</v>
@@ -2778,10 +2778,10 @@
         <v>30</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2789,19 +2789,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C69" s="5">
         <v>2020</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E69" s="5">
         <v>1.4</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G69" s="5">
         <v>101</v>
@@ -2810,10 +2810,10 @@
         <v>104</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2821,19 +2821,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C70" s="5">
         <v>2020</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E70" s="5">
         <v>1.2</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G70" s="5">
         <v>132</v>
@@ -2842,10 +2842,10 @@
         <v>45</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2853,19 +2853,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C71" s="5">
         <v>2020</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E71" s="5">
         <v>2.5</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G71" s="5">
         <v>160</v>
@@ -2874,10 +2874,10 @@
         <v>82</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,19 +2885,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C72" s="5">
         <v>2022</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E72" s="5">
         <v>2.5</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G72" s="5">
         <v>193</v>
@@ -2906,10 +2906,10 @@
         <v>105</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2917,19 +2917,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C73" s="5">
         <v>2021</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E73" s="5">
         <v>2.7</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G73" s="5">
         <v>166</v>
@@ -2938,10 +2938,10 @@
         <v>78</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,19 +2949,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C74" s="5">
         <v>2020</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E74" s="5">
         <v>2.8</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G74" s="5">
         <v>118</v>
@@ -2970,10 +2970,10 @@
         <v>46</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2981,19 +2981,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C75" s="5">
         <v>2023</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E75" s="5">
         <v>1.8</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G75" s="5">
         <v>148</v>
@@ -3002,10 +3002,10 @@
         <v>117</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3013,19 +3013,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C76" s="5">
         <v>2020</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E76" s="5">
         <v>1.8</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G76" s="5">
         <v>189</v>
@@ -3034,10 +3034,10 @@
         <v>124</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3045,19 +3045,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C77" s="5">
         <v>2020</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E77" s="5">
         <v>2.5</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G77" s="5">
         <v>74</v>
@@ -3066,10 +3066,10 @@
         <v>118</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3077,19 +3077,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C78" s="5">
         <v>2022</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5">
         <v>2.1</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G78" s="5">
         <v>172</v>
@@ -3098,10 +3098,10 @@
         <v>148</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3109,19 +3109,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C79" s="5">
         <v>2022</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E79" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G79" s="5">
         <v>102</v>
@@ -3130,10 +3130,10 @@
         <v>74</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3141,19 +3141,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C80" s="5">
         <v>2021</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E80" s="5">
         <v>2.5</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G80" s="5">
         <v>193</v>
@@ -3162,10 +3162,10 @@
         <v>25</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3173,19 +3173,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C81" s="5">
         <v>2023</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E81" s="5">
         <v>2.7</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G81" s="5">
         <v>106</v>
@@ -3194,10 +3194,10 @@
         <v>114</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3205,19 +3205,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C82" s="5">
         <v>2022</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E82" s="5">
         <v>1.3</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G82" s="5">
         <v>88</v>
@@ -3226,10 +3226,10 @@
         <v>121</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3237,19 +3237,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C83" s="5">
         <v>2020</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E83" s="5">
         <v>1.4</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G83" s="5">
         <v>158</v>
@@ -3258,10 +3258,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3269,19 +3269,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C84" s="5">
         <v>2021</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E84" s="5">
         <v>0.7</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G84" s="5">
         <v>91</v>
@@ -3290,10 +3290,10 @@
         <v>42</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3301,19 +3301,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C85" s="5">
         <v>2020</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E85" s="5">
         <v>1.9</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G85" s="5">
         <v>191</v>
@@ -3322,10 +3322,10 @@
         <v>72</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3333,19 +3333,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C86" s="5">
         <v>2020</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E86" s="5">
         <v>0.6</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G86" s="5">
         <v>171</v>
@@ -3354,10 +3354,10 @@
         <v>102</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3365,19 +3365,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C87" s="5">
         <v>2022</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E87" s="5">
         <v>1.7</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G87" s="5">
         <v>182</v>
@@ -3386,10 +3386,10 @@
         <v>104</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3397,19 +3397,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C88" s="5">
         <v>2021</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E88" s="5">
         <v>1.9</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G88" s="5">
         <v>124</v>
@@ -3418,10 +3418,10 @@
         <v>97</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3429,19 +3429,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C89" s="5">
         <v>2023</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E89" s="5">
         <v>1.2</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G89" s="5">
         <v>195</v>
@@ -3450,10 +3450,10 @@
         <v>129</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3461,19 +3461,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C90" s="5">
         <v>2023</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E90" s="5">
         <v>2</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G90" s="5">
         <v>125</v>
@@ -3482,10 +3482,10 @@
         <v>20</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3493,19 +3493,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C91" s="5">
         <v>2022</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E91" s="5">
         <v>0.6</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G91" s="5">
         <v>58</v>
@@ -3514,10 +3514,10 @@
         <v>70</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3525,19 +3525,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C92" s="5">
         <v>2022</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E92" s="5">
         <v>0.6</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G92" s="5">
         <v>123</v>
@@ -3546,10 +3546,10 @@
         <v>23</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3557,19 +3557,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C93" s="5">
         <v>2021</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E93" s="5">
         <v>2.6</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G93" s="5">
         <v>194</v>
@@ -3578,10 +3578,10 @@
         <v>132</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3589,19 +3589,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C94" s="5">
         <v>2023</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E94" s="5">
         <v>1.4</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G94" s="5">
         <v>56</v>
@@ -3610,10 +3610,10 @@
         <v>51</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,19 +3621,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C95" s="5">
         <v>2023</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E95" s="5">
         <v>0.8</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G95" s="5">
         <v>190</v>
@@ -3642,10 +3642,10 @@
         <v>53</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3653,19 +3653,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C96" s="5">
         <v>2023</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E96" s="5">
         <v>1.8</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G96" s="5">
         <v>186</v>
@@ -3674,10 +3674,10 @@
         <v>111</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3685,19 +3685,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C97" s="5">
         <v>2020</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E97" s="5">
         <v>2.4</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G97" s="5">
         <v>76</v>
@@ -3706,10 +3706,10 @@
         <v>114</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3717,19 +3717,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5">
         <v>2023</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E98" s="5">
         <v>1</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G98" s="5">
         <v>171</v>
@@ -3738,10 +3738,10 @@
         <v>91</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3749,19 +3749,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C99" s="5">
         <v>2020</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E99" s="5">
         <v>2.1</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G99" s="5">
         <v>54</v>
@@ -3770,10 +3770,10 @@
         <v>58</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3781,19 +3781,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C100" s="5">
         <v>2021</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E100" s="5">
         <v>0.7</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G100" s="5">
         <v>78</v>
@@ -3802,10 +3802,10 @@
         <v>137</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3813,19 +3813,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C101" s="5">
         <v>2020</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E101" s="5">
         <v>0.6</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G101" s="5">
         <v>132</v>
@@ -3834,10 +3834,10 @@
         <v>22</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
